--- a/docs/odh/odh-PastOrPresentJob.xlsx
+++ b/docs/odh/odh-PastOrPresentJob.xlsx
@@ -412,7 +412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -441,7 +441,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure)
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(RelatedPerson)
 </t>
   </si>
   <si>
@@ -901,7 +901,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -995,7 +995,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1126,7 +1126,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1206,7 +1206,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1234,7 +1234,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media|http://hl7.org/fhir/us/odh/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
